--- a/reports/Prediction_statistics.xlsx
+++ b/reports/Prediction_statistics.xlsx
@@ -497,7 +497,7 @@
         <v>5520.28</v>
       </c>
       <c r="D2" t="n">
-        <v>12.709</v>
+        <v>12.71</v>
       </c>
       <c r="E2" t="n">
         <v>26.5</v>
@@ -506,7 +506,7 @@
         <v>18744.2</v>
       </c>
       <c r="G2" t="n">
-        <v>909268060.2671841</v>
+        <v>909268060.27</v>
       </c>
     </row>
     <row r="3">
@@ -520,7 +520,7 @@
         <v>5208.74</v>
       </c>
       <c r="D3" t="n">
-        <v>9.4138</v>
+        <v>9.41</v>
       </c>
       <c r="E3" t="n">
         <v>712.71</v>
@@ -529,7 +529,7 @@
         <v>16573.14</v>
       </c>
       <c r="G3" t="n">
-        <v>910587344.2366855</v>
+        <v>910587344.24</v>
       </c>
     </row>
     <row r="4">
@@ -543,7 +543,7 @@
         <v>3885.75</v>
       </c>
       <c r="D4" t="n">
-        <v>8.0253</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>26.5</v>
@@ -552,7 +552,7 @@
         <v>11556.31</v>
       </c>
       <c r="G4" t="n">
-        <v>671495828.9053776</v>
+        <v>671495828.91</v>
       </c>
     </row>
     <row r="5">
@@ -566,7 +566,7 @@
         <v>2877.17</v>
       </c>
       <c r="D5" t="n">
-        <v>4.9361</v>
+        <v>4.94</v>
       </c>
       <c r="E5" t="n">
         <v>26.5</v>
@@ -575,7 +575,7 @@
         <v>8047.37</v>
       </c>
       <c r="G5" t="n">
-        <v>509178836.7678205</v>
+        <v>509178836.77</v>
       </c>
     </row>
     <row r="6">
@@ -589,7 +589,7 @@
         <v>-0.3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0009</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>-0.9</v>
@@ -610,7 +610,7 @@
         <v>-0.48</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0012</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>-0.91</v>
@@ -635,7 +635,7 @@
         <v>4394.68</v>
       </c>
       <c r="D8" t="n">
-        <v>12.9757</v>
+        <v>12.98</v>
       </c>
       <c r="E8" t="n">
         <v>111.2</v>
@@ -644,7 +644,7 @@
         <v>16056.3</v>
       </c>
       <c r="G8" t="n">
-        <v>381201572.840246</v>
+        <v>381201572.84</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         <v>4447.19</v>
       </c>
       <c r="D9" t="n">
-        <v>10.2372</v>
+        <v>10.24</v>
       </c>
       <c r="E9" t="n">
         <v>1408.27</v>
@@ -667,7 +667,7 @@
         <v>12556.6</v>
       </c>
       <c r="G9" t="n">
-        <v>384223628.3033283</v>
+        <v>384223628.3</v>
       </c>
     </row>
     <row r="10">
@@ -681,7 +681,7 @@
         <v>3003.83</v>
       </c>
       <c r="D10" t="n">
-        <v>6.7195</v>
+        <v>6.72</v>
       </c>
       <c r="E10" t="n">
         <v>111.2</v>
@@ -690,7 +690,7 @@
         <v>8313.76</v>
       </c>
       <c r="G10" t="n">
-        <v>263126743.8000743</v>
+        <v>263126743.8</v>
       </c>
     </row>
     <row r="11">
@@ -704,7 +704,7 @@
         <v>2844.48</v>
       </c>
       <c r="D11" t="n">
-        <v>5.8502</v>
+        <v>5.85</v>
       </c>
       <c r="E11" t="n">
         <v>111.2</v>
@@ -713,7 +713,7 @@
         <v>7012.23</v>
       </c>
       <c r="G11" t="n">
-        <v>247565762.4452131</v>
+        <v>247565762.45</v>
       </c>
     </row>
     <row r="12">
@@ -727,7 +727,7 @@
         <v>-0.32</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0013</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>-0.85</v>
@@ -748,7 +748,7 @@
         <v>-0.35</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0013</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>-0.85</v>
@@ -773,7 +773,7 @@
         <v>2506.98</v>
       </c>
       <c r="D14" t="n">
-        <v>5.5757</v>
+        <v>5.58</v>
       </c>
       <c r="E14" t="n">
         <v>54.9</v>
@@ -782,7 +782,7 @@
         <v>5882.4</v>
       </c>
       <c r="G14" t="n">
-        <v>177505211.591573</v>
+        <v>177505211.59</v>
       </c>
     </row>
     <row r="15">
@@ -796,7 +796,7 @@
         <v>2352.03</v>
       </c>
       <c r="D15" t="n">
-        <v>3.2066</v>
+        <v>3.21</v>
       </c>
       <c r="E15" t="n">
         <v>694.58</v>
@@ -805,7 +805,7 @@
         <v>3709.7</v>
       </c>
       <c r="G15" t="n">
-        <v>177557093.8695463</v>
+        <v>177557093.87</v>
       </c>
     </row>
     <row r="16">
@@ -819,7 +819,7 @@
         <v>2127.6</v>
       </c>
       <c r="D16" t="n">
-        <v>4.1086</v>
+        <v>4.11</v>
       </c>
       <c r="E16" t="n">
         <v>54.9</v>
@@ -828,7 +828,7 @@
         <v>3371.99</v>
       </c>
       <c r="G16" t="n">
-        <v>152081931.407554</v>
+        <v>152081931.41</v>
       </c>
     </row>
     <row r="17">
@@ -842,7 +842,7 @@
         <v>1476.5</v>
       </c>
       <c r="D17" t="n">
-        <v>2.0249</v>
+        <v>2.02</v>
       </c>
       <c r="E17" t="n">
         <v>54.9</v>
@@ -851,7 +851,7 @@
         <v>2267.36</v>
       </c>
       <c r="G17" t="n">
-        <v>111003266.0290709</v>
+        <v>111003266.03</v>
       </c>
     </row>
     <row r="18">
@@ -865,7 +865,7 @@
         <v>-0.15</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0008</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>-0.83</v>
@@ -886,7 +886,7 @@
         <v>-0.41</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0014</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>-0.83</v>
@@ -911,7 +911,7 @@
         <v>3091.48</v>
       </c>
       <c r="D20" t="n">
-        <v>6.7971</v>
+        <v>6.8</v>
       </c>
       <c r="E20" t="n">
         <v>74.09999999999999</v>
@@ -920,7 +920,7 @@
         <v>12899.1</v>
       </c>
       <c r="G20" t="n">
-        <v>617000745.921303</v>
+        <v>617000745.92</v>
       </c>
     </row>
     <row r="21">
@@ -934,7 +934,7 @@
         <v>3008.65</v>
       </c>
       <c r="D21" t="n">
-        <v>4.4988</v>
+        <v>4.5</v>
       </c>
       <c r="E21" t="n">
         <v>587.1</v>
@@ -943,7 +943,7 @@
         <v>12702.92</v>
       </c>
       <c r="G21" t="n">
-        <v>617912194.768237</v>
+        <v>617912194.77</v>
       </c>
     </row>
     <row r="22">
@@ -957,7 +957,7 @@
         <v>1947.36</v>
       </c>
       <c r="D22" t="n">
-        <v>2.7055</v>
+        <v>2.71</v>
       </c>
       <c r="E22" t="n">
         <v>74.09999999999999</v>
@@ -966,7 +966,7 @@
         <v>5675.12</v>
       </c>
       <c r="G22" t="n">
-        <v>407583172.8149686</v>
+        <v>407583172.81</v>
       </c>
     </row>
     <row r="23">
@@ -980,7 +980,7 @@
         <v>1613.88</v>
       </c>
       <c r="D23" t="n">
-        <v>1.8949</v>
+        <v>1.89</v>
       </c>
       <c r="E23" t="n">
         <v>74.09999999999999</v>
@@ -989,7 +989,7 @@
         <v>4137.14</v>
       </c>
       <c r="G23" t="n">
-        <v>328468517.6886558</v>
+        <v>328468517.69</v>
       </c>
     </row>
     <row r="24">
@@ -1003,7 +1003,7 @@
         <v>-0.37</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>-0.93</v>
@@ -1024,7 +1024,7 @@
         <v>-0.48</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>-0.9399999999999999</v>
@@ -1104,16 +1104,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2085.29</v>
+        <v>2085</v>
       </c>
       <c r="D3" t="n">
-        <v>2320.96</v>
+        <v>2321</v>
       </c>
       <c r="E3" t="n">
-        <v>1594.02</v>
+        <v>1594</v>
       </c>
       <c r="F3" t="n">
-        <v>1469.78</v>
+        <v>1470</v>
       </c>
       <c r="G3" t="n">
         <v>-0.24</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4656.12</v>
+        <v>4656</v>
       </c>
       <c r="D4" t="n">
-        <v>5432.46</v>
+        <v>5432</v>
       </c>
       <c r="E4" t="n">
-        <v>3301.14</v>
+        <v>3301</v>
       </c>
       <c r="F4" t="n">
-        <v>2815.83</v>
+        <v>2816</v>
       </c>
       <c r="G4" t="n">
         <v>-0.29</v>
@@ -1156,16 +1156,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6413.77</v>
+        <v>6414</v>
       </c>
       <c r="D5" t="n">
-        <v>6505.37</v>
+        <v>6505</v>
       </c>
       <c r="E5" t="n">
-        <v>5270.88</v>
+        <v>5271</v>
       </c>
       <c r="F5" t="n">
-        <v>3748.1</v>
+        <v>3748</v>
       </c>
       <c r="G5" t="n">
         <v>-0.18</v>
@@ -1182,16 +1182,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8597.42</v>
+        <v>8597</v>
       </c>
       <c r="D6" t="n">
-        <v>6625.29</v>
+        <v>6625</v>
       </c>
       <c r="E6" t="n">
-        <v>5708.34</v>
+        <v>5708</v>
       </c>
       <c r="F6" t="n">
-        <v>3738.63</v>
+        <v>3739</v>
       </c>
       <c r="G6" t="n">
         <v>-0.34</v>
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6368.67</v>
+        <v>6369</v>
       </c>
       <c r="D7" t="n">
-        <v>5814.76</v>
+        <v>5815</v>
       </c>
       <c r="E7" t="n">
-        <v>4973.92</v>
+        <v>4974</v>
       </c>
       <c r="F7" t="n">
-        <v>3353.3</v>
+        <v>3353</v>
       </c>
       <c r="G7" t="n">
         <v>-0.22</v>
@@ -1234,16 +1234,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4525.98</v>
+        <v>4526</v>
       </c>
       <c r="D8" t="n">
-        <v>4006.34</v>
+        <v>4006</v>
       </c>
       <c r="E8" t="n">
-        <v>3208.26</v>
+        <v>3208</v>
       </c>
       <c r="F8" t="n">
-        <v>2193.89</v>
+        <v>2194</v>
       </c>
       <c r="G8" t="n">
         <v>-0.29</v>
@@ -1264,16 +1264,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2649.92</v>
+        <v>2650</v>
       </c>
       <c r="D9" t="n">
-        <v>2822.88</v>
+        <v>2823</v>
       </c>
       <c r="E9" t="n">
-        <v>1985.43</v>
+        <v>1985</v>
       </c>
       <c r="F9" t="n">
-        <v>1968.55</v>
+        <v>1969</v>
       </c>
       <c r="G9" t="n">
         <v>-0.25</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4424.66</v>
+        <v>4425</v>
       </c>
       <c r="D10" t="n">
-        <v>4514.8</v>
+        <v>4515</v>
       </c>
       <c r="E10" t="n">
-        <v>3021.44</v>
+        <v>3021</v>
       </c>
       <c r="F10" t="n">
-        <v>2868.75</v>
+        <v>2869</v>
       </c>
       <c r="G10" t="n">
         <v>-0.32</v>
@@ -1316,16 +1316,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6721.91</v>
+        <v>6722</v>
       </c>
       <c r="D11" t="n">
-        <v>5857.75</v>
+        <v>5858</v>
       </c>
       <c r="E11" t="n">
-        <v>4769.75</v>
+        <v>4770</v>
       </c>
       <c r="F11" t="n">
-        <v>4058.03</v>
+        <v>4058</v>
       </c>
       <c r="G11" t="n">
         <v>-0.29</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6391.46</v>
+        <v>6391</v>
       </c>
       <c r="D12" t="n">
-        <v>5305.43</v>
+        <v>5305</v>
       </c>
       <c r="E12" t="n">
         <v>4242</v>
       </c>
       <c r="F12" t="n">
-        <v>3649.51</v>
+        <v>3650</v>
       </c>
       <c r="G12" t="n">
         <v>-0.34</v>
@@ -1368,16 +1368,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8848.26</v>
+        <v>8848</v>
       </c>
       <c r="D13" t="n">
-        <v>4844.48</v>
+        <v>4844</v>
       </c>
       <c r="E13" t="n">
-        <v>4421.24</v>
+        <v>4421</v>
       </c>
       <c r="F13" t="n">
-        <v>3756.52</v>
+        <v>3757</v>
       </c>
       <c r="G13" t="n">
         <v>-0.5</v>
@@ -1394,16 +1394,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5295.4</v>
+        <v>5295</v>
       </c>
       <c r="D14" t="n">
-        <v>4379.92</v>
+        <v>4380</v>
       </c>
       <c r="E14" t="n">
-        <v>3459.51</v>
+        <v>3460</v>
       </c>
       <c r="F14" t="n">
-        <v>3052.67</v>
+        <v>3053</v>
       </c>
       <c r="G14" t="n">
         <v>-0.35</v>
@@ -1424,16 +1424,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>999.4</v>
+        <v>999</v>
       </c>
       <c r="D15" t="n">
-        <v>1626.73</v>
+        <v>1627</v>
       </c>
       <c r="E15" t="n">
-        <v>984.52</v>
+        <v>985</v>
       </c>
       <c r="F15" t="n">
-        <v>940.05</v>
+        <v>940</v>
       </c>
       <c r="G15" t="n">
         <v>-0.01</v>
@@ -1450,16 +1450,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1423.65</v>
+        <v>1424</v>
       </c>
       <c r="D16" t="n">
-        <v>1563.67</v>
+        <v>1564</v>
       </c>
       <c r="E16" t="n">
-        <v>1189.29</v>
+        <v>1189</v>
       </c>
       <c r="F16" t="n">
-        <v>1093.02</v>
+        <v>1093</v>
       </c>
       <c r="G16" t="n">
         <v>-0.16</v>
@@ -1476,16 +1476,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2522.81</v>
+        <v>2523</v>
       </c>
       <c r="D17" t="n">
-        <v>2444.46</v>
+        <v>2444</v>
       </c>
       <c r="E17" t="n">
-        <v>2204.68</v>
+        <v>2205</v>
       </c>
       <c r="F17" t="n">
-        <v>1519.26</v>
+        <v>1519</v>
       </c>
       <c r="G17" t="n">
         <v>-0.13</v>
@@ -1502,16 +1502,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2916.05</v>
+        <v>2916</v>
       </c>
       <c r="D18" t="n">
-        <v>2643.06</v>
+        <v>2643</v>
       </c>
       <c r="E18" t="n">
-        <v>2468.26</v>
+        <v>2468</v>
       </c>
       <c r="F18" t="n">
-        <v>1638.58</v>
+        <v>1639</v>
       </c>
       <c r="G18" t="n">
         <v>-0.15</v>
@@ -1528,16 +1528,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2685.12</v>
+        <v>2685</v>
       </c>
       <c r="D19" t="n">
-        <v>2480.37</v>
+        <v>2480</v>
       </c>
       <c r="E19" t="n">
-        <v>2289.06</v>
+        <v>2289</v>
       </c>
       <c r="F19" t="n">
-        <v>1525.97</v>
+        <v>1526</v>
       </c>
       <c r="G19" t="n">
         <v>-0.15</v>
@@ -1558,16 +1558,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2546.17</v>
+        <v>2546</v>
       </c>
       <c r="D20" t="n">
-        <v>2150.51</v>
+        <v>2151</v>
       </c>
       <c r="E20" t="n">
-        <v>1407.59</v>
+        <v>1408</v>
       </c>
       <c r="F20" t="n">
-        <v>1249.45</v>
+        <v>1249</v>
       </c>
       <c r="G20" t="n">
         <v>-0.45</v>
@@ -1584,16 +1584,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2872.89</v>
+        <v>2873</v>
       </c>
       <c r="D21" t="n">
-        <v>3167.97</v>
+        <v>3168</v>
       </c>
       <c r="E21" t="n">
-        <v>1807.27</v>
+        <v>1807</v>
       </c>
       <c r="F21" t="n">
-        <v>1633.17</v>
+        <v>1633</v>
       </c>
       <c r="G21" t="n">
         <v>-0.37</v>
@@ -1610,16 +1610,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4039.73</v>
+        <v>4040</v>
       </c>
       <c r="D22" t="n">
-        <v>3136.93</v>
+        <v>3137</v>
       </c>
       <c r="E22" t="n">
-        <v>2335.58</v>
+        <v>2336</v>
       </c>
       <c r="F22" t="n">
-        <v>1751.44</v>
+        <v>1751</v>
       </c>
       <c r="G22" t="n">
         <v>-0.42</v>
@@ -1636,16 +1636,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3021.14</v>
+        <v>3021</v>
       </c>
       <c r="D23" t="n">
-        <v>2839.61</v>
+        <v>2840</v>
       </c>
       <c r="E23" t="n">
-        <v>2110.31</v>
+        <v>2110</v>
       </c>
       <c r="F23" t="n">
-        <v>1575.21</v>
+        <v>1575</v>
       </c>
       <c r="G23" t="n">
         <v>-0.3</v>
@@ -1662,16 +1662,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1762.45</v>
+        <v>1762</v>
       </c>
       <c r="D24" t="n">
-        <v>1724.09</v>
+        <v>1724</v>
       </c>
       <c r="E24" t="n">
-        <v>1418.43</v>
+        <v>1418</v>
       </c>
       <c r="F24" t="n">
-        <v>1074.77</v>
+        <v>1075</v>
       </c>
       <c r="G24" t="n">
         <v>-0.2</v>
@@ -1688,16 +1688,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2819.37</v>
+        <v>2819</v>
       </c>
       <c r="D25" t="n">
-        <v>3220.12</v>
+        <v>3220</v>
       </c>
       <c r="E25" t="n">
-        <v>2219.39</v>
+        <v>2219</v>
       </c>
       <c r="F25" t="n">
-        <v>1740.55</v>
+        <v>1741</v>
       </c>
       <c r="G25" t="n">
         <v>-0.21</v>
